--- a/Tabulados INPC/inflacion_quincenal_anual_generico.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_anual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="434">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -1280,9 +1280,6 @@
     <t>Unidad de medida: Tasas / porcentaje</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
-  </si>
-  <si>
     <t>Inflación quincenal anual por producto genérico</t>
   </si>
   <si>
@@ -1329,6 +1326,9 @@
   </si>
   <si>
     <t>Año / mes / quincena</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:BM316"/>
+  <dimension ref="A8:BN316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1909,46 +1909,46 @@
     <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="64" width="11.42578125" style="2"/>
-    <col min="65" max="65" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="11.42578125" style="2"/>
+    <col min="65" max="66" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>420</v>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="F14" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>412</v>
       </c>
@@ -2144,195 +2144,201 @@
       <c r="BM15" s="12">
         <v>2022</v>
       </c>
+      <c r="BN15" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="K16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="M16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="P16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="Q16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="T16" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="U16" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="V16" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="U16" s="13" t="s">
+      <c r="W16" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="X16" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="Y16" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="Z16" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="AA16" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="Z16" s="13" t="s">
+      <c r="AB16" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AA16" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>432</v>
-      </c>
       <c r="AC16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AD16" s="13" t="s">
+      <c r="AF16" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AG16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AH16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="AG16" s="13" t="s">
+      <c r="AI16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AH16" s="13" t="s">
+      <c r="AJ16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="AI16" s="13" t="s">
+      <c r="AK16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AJ16" s="13" t="s">
+      <c r="AL16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="AK16" s="13" t="s">
+      <c r="AM16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AL16" s="13" t="s">
+      <c r="AN16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="AM16" s="13" t="s">
+      <c r="AO16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AN16" s="13" t="s">
+      <c r="AP16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="AO16" s="13" t="s">
+      <c r="AQ16" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AP16" s="13" t="s">
+      <c r="AR16" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AQ16" s="13" t="s">
+      <c r="AS16" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AR16" s="13" t="s">
+      <c r="AT16" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AS16" s="13" t="s">
+      <c r="AU16" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AT16" s="13" t="s">
+      <c r="AV16" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AU16" s="13" t="s">
+      <c r="AW16" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AV16" s="13" t="s">
+      <c r="AX16" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="AW16" s="13" t="s">
+      <c r="AY16" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AX16" s="13" t="s">
+      <c r="AZ16" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AY16" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="AZ16" s="13" t="s">
-        <v>432</v>
-      </c>
       <c r="BA16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC16" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="BB16" s="13" t="s">
+      <c r="BD16" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="BC16" s="13" t="s">
+      <c r="BE16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="BD16" s="13" t="s">
+      <c r="BF16" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="BE16" s="13" t="s">
+      <c r="BG16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="BF16" s="13" t="s">
+      <c r="BH16" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="BG16" s="13" t="s">
+      <c r="BI16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="BH16" s="13" t="s">
+      <c r="BJ16" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="BI16" s="13" t="s">
+      <c r="BK16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="BJ16" s="13" t="s">
+      <c r="BL16" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="BK16" s="13" t="s">
+      <c r="BM16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="BL16" s="13" t="s">
+      <c r="BN16" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="BM16" s="13" t="s">
-        <v>427</v>
-      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -2518,8 +2524,11 @@
       <c r="BM17" s="14">
         <v>1</v>
       </c>
+      <c r="BN17" s="14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2715,8 +2724,11 @@
       <c r="BM18" s="10">
         <v>0.31589145481475978</v>
       </c>
+      <c r="BN18" s="10">
+        <v>0.29256268747337999</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -2912,8 +2924,11 @@
       <c r="BM19" s="10">
         <v>1.6432322547857092E-2</v>
       </c>
+      <c r="BN19" s="10">
+        <v>1.6523972602739967E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -3109,8 +3124,11 @@
       <c r="BM20" s="10">
         <v>5.8094934363067452E-2</v>
       </c>
+      <c r="BN20" s="10">
+        <v>6.149486970334439E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -3306,8 +3324,11 @@
       <c r="BM21" s="10">
         <v>7.1589343329311106E-2</v>
       </c>
+      <c r="BN21" s="10">
+        <v>7.2141921901876849E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -3503,8 +3524,11 @@
       <c r="BM22" s="10">
         <v>6.2512419027937804E-2</v>
       </c>
+      <c r="BN22" s="10">
+        <v>5.8961020877055015E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -3700,8 +3724,11 @@
       <c r="BM23" s="10">
         <v>7.6415808938198992E-2</v>
       </c>
+      <c r="BN23" s="10">
+        <v>8.9968800564986795E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -3897,8 +3924,11 @@
       <c r="BM24" s="10">
         <v>1.822927524871365E-2</v>
       </c>
+      <c r="BN24" s="10">
+        <v>-3.1112158111499255E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -4094,8 +4124,11 @@
       <c r="BM25" s="10">
         <v>0.1341770557864248</v>
       </c>
+      <c r="BN25" s="10">
+        <v>0.14658340105289169</v>
+      </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -4291,8 +4324,11 @@
       <c r="BM26" s="10">
         <v>0.14216446693622919</v>
       </c>
+      <c r="BN26" s="10">
+        <v>0.13499444051349441</v>
+      </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -4488,8 +4524,11 @@
       <c r="BM27" s="10">
         <v>0.37345276730495014</v>
       </c>
+      <c r="BN27" s="10">
+        <v>0.37459607904289149</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -4685,8 +4724,11 @@
       <c r="BM28" s="10">
         <v>0.19446842957366406</v>
       </c>
+      <c r="BN28" s="10">
+        <v>0.19356980102983634</v>
+      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -4882,8 +4924,11 @@
       <c r="BM29" s="10">
         <v>0.21021305960493386</v>
       </c>
+      <c r="BN29" s="10">
+        <v>0.18950122863949281</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -5079,8 +5124,11 @@
       <c r="BM30" s="10">
         <v>9.7597700362740181E-2</v>
       </c>
+      <c r="BN30" s="10">
+        <v>8.3232473698910736E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -5276,8 +5324,11 @@
       <c r="BM31" s="10">
         <v>6.5351108229668942E-2</v>
       </c>
+      <c r="BN31" s="10">
+        <v>6.5669153770326227E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -5473,8 +5524,11 @@
       <c r="BM32" s="10">
         <v>3.5224068703091804E-2</v>
       </c>
+      <c r="BN32" s="10">
+        <v>3.5330297756693163E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -5670,8 +5724,11 @@
       <c r="BM33" s="10">
         <v>3.6138944555778041E-2</v>
       </c>
+      <c r="BN33" s="10">
+        <v>5.1591732119105504E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -5867,8 +5924,11 @@
       <c r="BM34" s="10">
         <v>0.15604736144448816</v>
       </c>
+      <c r="BN34" s="10">
+        <v>0.1530833757671588</v>
+      </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -6064,8 +6124,11 @@
       <c r="BM35" s="10">
         <v>0.64965952261486648</v>
       </c>
+      <c r="BN35" s="10">
+        <v>0.76685692173744813</v>
+      </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -6261,8 +6324,11 @@
       <c r="BM36" s="10">
         <v>-1.4326036299189382E-2</v>
       </c>
+      <c r="BN36" s="10">
+        <v>-8.0023452417737895E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -6458,8 +6524,11 @@
       <c r="BM37" s="10">
         <v>0.16062316550011291</v>
       </c>
+      <c r="BN37" s="10">
+        <v>7.1563758855396564E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -6655,8 +6724,11 @@
       <c r="BM38" s="10">
         <v>1.5119447688506487</v>
       </c>
+      <c r="BN38" s="10">
+        <v>1.7235113146920078</v>
+      </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -6852,8 +6924,11 @@
       <c r="BM39" s="10">
         <v>0.24612039325738277</v>
       </c>
+      <c r="BN39" s="10">
+        <v>0.3037832486053198</v>
+      </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -7049,8 +7124,11 @@
       <c r="BM40" s="10">
         <v>0.22328784666391566</v>
       </c>
+      <c r="BN40" s="10">
+        <v>0.32645690457318133</v>
+      </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -7246,8 +7324,11 @@
       <c r="BM41" s="10">
         <v>8.8865193815585775E-2</v>
       </c>
+      <c r="BN41" s="10">
+        <v>0.14730973899822608</v>
+      </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -7443,8 +7524,11 @@
       <c r="BM42" s="10">
         <v>0.22790367793576261</v>
       </c>
+      <c r="BN42" s="10">
+        <v>0.17123747462178263</v>
+      </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -7640,8 +7724,11 @@
       <c r="BM43" s="10">
         <v>0.18664498324462864</v>
       </c>
+      <c r="BN43" s="10">
+        <v>0.27485220830054669</v>
+      </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -7837,8 +7924,11 @@
       <c r="BM44" s="10">
         <v>0.13905342028064793</v>
       </c>
+      <c r="BN44" s="10">
+        <v>0.13202262769674444</v>
+      </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -8034,8 +8124,11 @@
       <c r="BM45" s="10">
         <v>-1.8228802905433827E-2</v>
       </c>
+      <c r="BN45" s="10">
+        <v>1.9106529209622192E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -8231,8 +8324,11 @@
       <c r="BM46" s="10">
         <v>0.25129739857078892</v>
       </c>
+      <c r="BN46" s="10">
+        <v>0.1459642732878792</v>
+      </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -8428,8 +8524,11 @@
       <c r="BM47" s="10">
         <v>0.1511875537245122</v>
       </c>
+      <c r="BN47" s="10">
+        <v>0.18796576549522293</v>
+      </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -8625,8 +8724,11 @@
       <c r="BM48" s="10">
         <v>0.30965682362330416</v>
       </c>
+      <c r="BN48" s="10">
+        <v>0.45038649629279059</v>
+      </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -8822,8 +8924,11 @@
       <c r="BM49" s="10">
         <v>0.11740925885677034</v>
       </c>
+      <c r="BN49" s="10">
+        <v>7.8305793945604441E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -9019,8 +9124,11 @@
       <c r="BM50" s="10">
         <v>0.14977409308242295</v>
       </c>
+      <c r="BN50" s="10">
+        <v>0.15413547111173909</v>
+      </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -9216,8 +9324,11 @@
       <c r="BM51" s="10">
         <v>1.0238625282873004E-2</v>
       </c>
+      <c r="BN51" s="10">
+        <v>3.7177109915731421E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -9413,8 +9524,11 @@
       <c r="BM52" s="10">
         <v>6.1710998082214585E-2</v>
       </c>
+      <c r="BN52" s="10">
+        <v>5.9732277463925509E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -9610,8 +9724,11 @@
       <c r="BM53" s="10">
         <v>0.11476798461171955</v>
       </c>
+      <c r="BN53" s="10">
+        <v>9.4130935314305608E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -9807,8 +9924,11 @@
       <c r="BM54" s="10">
         <v>-7.4139108379670526E-3</v>
       </c>
+      <c r="BN54" s="10">
+        <v>1.7666018748615953E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -10004,8 +10124,11 @@
       <c r="BM55" s="10">
         <v>0.10993295406621972</v>
       </c>
+      <c r="BN55" s="10">
+        <v>0.1301989459027737</v>
+      </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -10201,8 +10324,11 @@
       <c r="BM56" s="10">
         <v>5.2759568619158426E-2</v>
       </c>
+      <c r="BN56" s="10">
+        <v>3.8318458878390471E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -10398,8 +10524,11 @@
       <c r="BM57" s="10">
         <v>0.21586188140631912</v>
       </c>
+      <c r="BN57" s="10">
+        <v>0.33728214669784751</v>
+      </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -10595,8 +10724,11 @@
       <c r="BM58" s="10">
         <v>0.7671140939597314</v>
       </c>
+      <c r="BN58" s="10">
+        <v>1.0141477905681398</v>
+      </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -10792,8 +10924,11 @@
       <c r="BM59" s="10">
         <v>-8.0869472247123597E-2</v>
       </c>
+      <c r="BN59" s="10">
+        <v>-0.15206897677912412</v>
+      </c>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -10989,8 +11124,11 @@
       <c r="BM60" s="10">
         <v>0.81750893312914763</v>
       </c>
+      <c r="BN60" s="10">
+        <v>0.68719955869605198</v>
+      </c>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -11186,8 +11324,11 @@
       <c r="BM61" s="10">
         <v>0.72090680100755655</v>
       </c>
+      <c r="BN61" s="10">
+        <v>0.57681806424417759</v>
+      </c>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -11383,8 +11524,11 @@
       <c r="BM62" s="10">
         <v>0.46267961238909461</v>
       </c>
+      <c r="BN62" s="10">
+        <v>0.31731336393711707</v>
+      </c>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -11580,8 +11724,11 @@
       <c r="BM63" s="10">
         <v>-1.3754878672580628E-2</v>
       </c>
+      <c r="BN63" s="10">
+        <v>-0.19400621118012429</v>
+      </c>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -11777,8 +11924,11 @@
       <c r="BM64" s="10">
         <v>0.24299497316822416</v>
       </c>
+      <c r="BN64" s="10">
+        <v>0.17197977824359056</v>
+      </c>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -11974,8 +12124,11 @@
       <c r="BM65" s="10">
         <v>-3.2985588886762174E-2</v>
       </c>
+      <c r="BN65" s="10">
+        <v>-0.11213072983677708</v>
+      </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -12171,8 +12324,11 @@
       <c r="BM66" s="10">
         <v>0.19624049532105947</v>
       </c>
+      <c r="BN66" s="10">
+        <v>0.15721389369774208</v>
+      </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -12368,8 +12524,11 @@
       <c r="BM67" s="10">
         <v>0.22401098941033681</v>
       </c>
+      <c r="BN67" s="10">
+        <v>0.20764840093755588</v>
+      </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -12565,8 +12724,11 @@
       <c r="BM68" s="10">
         <v>-6.1170156570244938E-3</v>
       </c>
+      <c r="BN68" s="10">
+        <v>-3.989321128909229E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -12762,8 +12924,11 @@
       <c r="BM69" s="10">
         <v>8.1424332344213646E-2</v>
       </c>
+      <c r="BN69" s="10">
+        <v>2.7471785125604553E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -12959,8 +13124,11 @@
       <c r="BM70" s="10">
         <v>0.80856291152094872</v>
       </c>
+      <c r="BN70" s="10">
+        <v>0.61260589630633677</v>
+      </c>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -13156,8 +13324,11 @@
       <c r="BM71" s="10">
         <v>-8.7777398713585586E-2</v>
       </c>
+      <c r="BN71" s="10">
+        <v>-6.7534760538512484E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -13353,8 +13524,11 @@
       <c r="BM72" s="10">
         <v>2.7365937874774149E-2</v>
       </c>
+      <c r="BN72" s="10">
+        <v>2.6757811214990213E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -13550,8 +13724,11 @@
       <c r="BM73" s="10">
         <v>-0.19436016934488454</v>
       </c>
+      <c r="BN73" s="10">
+        <v>-0.20906302222832684</v>
+      </c>
     </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -13747,8 +13924,11 @@
       <c r="BM74" s="10">
         <v>0.14200806420936507</v>
       </c>
+      <c r="BN74" s="10">
+        <v>0.14548426254265312</v>
+      </c>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -13944,8 +14124,11 @@
       <c r="BM75" s="10">
         <v>8.0014793731960188E-2</v>
       </c>
+      <c r="BN75" s="10">
+        <v>7.9304485088630639E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -14141,8 +14324,11 @@
       <c r="BM76" s="10">
         <v>0.13647398294615165</v>
       </c>
+      <c r="BN76" s="10">
+        <v>0.14294604195296512</v>
+      </c>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -14338,8 +14524,11 @@
       <c r="BM77" s="10">
         <v>7.9535051693584435E-2</v>
       </c>
+      <c r="BN77" s="10">
+        <v>8.2015651777498366E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -14535,8 +14724,11 @@
       <c r="BM78" s="10">
         <v>4.411362080766601E-2</v>
       </c>
+      <c r="BN78" s="10">
+        <v>4.9963554998050608E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -14732,8 +14924,11 @@
       <c r="BM79" s="10">
         <v>6.608413312323913E-2</v>
       </c>
+      <c r="BN79" s="10">
+        <v>5.5863448417623918E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -14929,8 +15124,11 @@
       <c r="BM80" s="10">
         <v>6.4465408805031377E-2</v>
       </c>
+      <c r="BN80" s="10">
+        <v>6.9203202962912158E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -15126,8 +15324,11 @@
       <c r="BM81" s="10">
         <v>2.9436036173995817E-2</v>
       </c>
+      <c r="BN81" s="10">
+        <v>1.3648687334758991E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -15323,8 +15524,11 @@
       <c r="BM82" s="10">
         <v>7.0706389294116656E-2</v>
       </c>
+      <c r="BN82" s="10">
+        <v>7.05192798602714E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -15520,8 +15724,11 @@
       <c r="BM83" s="10">
         <v>4.9380689326843363E-2</v>
       </c>
+      <c r="BN83" s="10">
+        <v>3.2849929307210646E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -15717,8 +15924,11 @@
       <c r="BM84" s="10">
         <v>0.10431077326685068</v>
       </c>
+      <c r="BN84" s="10">
+        <v>0.13378018777928413</v>
+      </c>
     </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -15914,8 +16124,11 @@
       <c r="BM85" s="10">
         <v>3.6899243117685776E-2</v>
       </c>
+      <c r="BN85" s="10">
+        <v>2.8371834718473821E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -16111,8 +16324,11 @@
       <c r="BM86" s="10">
         <v>0.11499065902209638</v>
       </c>
+      <c r="BN86" s="10">
+        <v>0.10716210907163948</v>
+      </c>
     </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -16308,8 +16524,11 @@
       <c r="BM87" s="10">
         <v>8.3869404668415637E-2</v>
       </c>
+      <c r="BN87" s="10">
+        <v>7.9088505392397979E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -16505,8 +16724,11 @@
       <c r="BM88" s="10">
         <v>4.208332618651478E-2</v>
       </c>
+      <c r="BN88" s="10">
+        <v>2.8156062164037543E-2</v>
+      </c>
     </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -16702,8 +16924,11 @@
       <c r="BM89" s="10">
         <v>9.2995015242996359E-2</v>
       </c>
+      <c r="BN89" s="10">
+        <v>0.10243174169386871</v>
+      </c>
     </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -16899,8 +17124,11 @@
       <c r="BM90" s="10">
         <v>9.9690821421536402E-2</v>
       </c>
+      <c r="BN90" s="10">
+        <v>0.12020128166530486</v>
+      </c>
     </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -17096,8 +17324,11 @@
       <c r="BM91" s="10">
         <v>8.8510945944754393E-2</v>
       </c>
+      <c r="BN91" s="10">
+        <v>8.7112213834485974E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -17293,8 +17524,11 @@
       <c r="BM92" s="10">
         <v>4.7379539281762417E-2</v>
       </c>
+      <c r="BN92" s="10">
+        <v>1.2267398434709254E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -17490,8 +17724,11 @@
       <c r="BM93" s="10">
         <v>9.4893920606070825E-2</v>
       </c>
+      <c r="BN93" s="10">
+        <v>9.9565154738796124E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -17687,8 +17924,11 @@
       <c r="BM94" s="10">
         <v>4.8166026567069586E-2</v>
       </c>
+      <c r="BN94" s="10">
+        <v>4.6951640607015621E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -17884,8 +18124,11 @@
       <c r="BM95" s="10">
         <v>9.6673360691521992E-2</v>
       </c>
+      <c r="BN95" s="10">
+        <v>8.514174421120968E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -18081,8 +18324,11 @@
       <c r="BM96" s="10">
         <v>2.242559791597043E-2</v>
       </c>
+      <c r="BN96" s="10">
+        <v>2.3419625183166648E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -18278,8 +18524,11 @@
       <c r="BM97" s="10">
         <v>6.838566062236251E-2</v>
       </c>
+      <c r="BN97" s="10">
+        <v>6.5759071332187391E-2</v>
+      </c>
     </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -18475,8 +18724,11 @@
       <c r="BM98" s="10">
         <v>6.0331610211382669E-2</v>
       </c>
+      <c r="BN98" s="10">
+        <v>6.1572287837177608E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -18672,8 +18924,11 @@
       <c r="BM99" s="10">
         <v>7.3226448881227757E-2</v>
       </c>
+      <c r="BN99" s="10">
+        <v>8.4087191641352588E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -18869,8 +19124,11 @@
       <c r="BM100" s="10">
         <v>5.1486277683761239E-2</v>
       </c>
+      <c r="BN100" s="10">
+        <v>8.1214637372327037E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -19066,8 +19324,11 @@
       <c r="BM101" s="10">
         <v>5.463636064603139E-2</v>
       </c>
+      <c r="BN101" s="10">
+        <v>4.1946157193408773E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -19263,8 +19524,11 @@
       <c r="BM102" s="10">
         <v>8.3184331644647669E-2</v>
       </c>
+      <c r="BN102" s="10">
+        <v>8.5439170217685545E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -19460,8 +19724,11 @@
       <c r="BM103" s="10">
         <v>-7.2401787603470047E-2</v>
       </c>
+      <c r="BN103" s="10">
+        <v>-1.7615569890806815E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -19657,8 +19924,11 @@
       <c r="BM104" s="10">
         <v>8.7117879202348592E-2</v>
       </c>
+      <c r="BN104" s="10">
+        <v>9.3852409793593328E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -19854,8 +20124,11 @@
       <c r="BM105" s="10">
         <v>9.60458503643149E-2</v>
       </c>
+      <c r="BN105" s="10">
+        <v>9.0207943475751673E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -20051,8 +20324,11 @@
       <c r="BM106" s="10">
         <v>0.13534296829332204</v>
       </c>
+      <c r="BN106" s="10">
+        <v>0.14991199498270236</v>
+      </c>
     </row>
-    <row r="107" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -20248,8 +20524,11 @@
       <c r="BM107" s="10">
         <v>3.4189935258370552E-2</v>
       </c>
+      <c r="BN107" s="10">
+        <v>5.0082181185342689E-2</v>
+      </c>
     </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -20445,8 +20724,11 @@
       <c r="BM108" s="10">
         <v>9.5087946244093668E-2</v>
       </c>
+      <c r="BN108" s="10">
+        <v>9.6118382181798578E-2</v>
+      </c>
     </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -20642,8 +20924,11 @@
       <c r="BM109" s="10">
         <v>0.17782402994341884</v>
       </c>
+      <c r="BN109" s="10">
+        <v>0.16912326388888888</v>
+      </c>
     </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -20839,8 +21124,11 @@
       <c r="BM110" s="10">
         <v>8.7038058466629931E-2</v>
       </c>
+      <c r="BN110" s="10">
+        <v>9.9870856650882578E-2</v>
+      </c>
     </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -21036,8 +21324,11 @@
       <c r="BM111" s="10">
         <v>0.16225116554429064</v>
       </c>
+      <c r="BN111" s="10">
+        <v>0.1409572782661439</v>
+      </c>
     </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -21233,8 +21524,11 @@
       <c r="BM112" s="10">
         <v>0.12804729742371235</v>
       </c>
+      <c r="BN112" s="10">
+        <v>0.12468946266573622</v>
+      </c>
     </row>
-    <row r="113" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -21430,8 +21724,11 @@
       <c r="BM113" s="10">
         <v>4.6631013859688597E-2</v>
       </c>
+      <c r="BN113" s="10">
+        <v>6.6797983303055641E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -21627,8 +21924,11 @@
       <c r="BM114" s="10">
         <v>0.1062166318226585</v>
       </c>
+      <c r="BN114" s="10">
+        <v>0.10719856989872922</v>
+      </c>
     </row>
-    <row r="115" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -21824,8 +22124,11 @@
       <c r="BM115" s="10">
         <v>-1.7595130428767813E-2</v>
       </c>
+      <c r="BN115" s="10">
+        <v>-1.228261343329129E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -22021,8 +22324,11 @@
       <c r="BM116" s="10">
         <v>0.1553134207050697</v>
       </c>
+      <c r="BN116" s="10">
+        <v>0.1364736811454339</v>
+      </c>
     </row>
-    <row r="117" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -22218,8 +22524,11 @@
       <c r="BM117" s="10">
         <v>0.19248166647026288</v>
       </c>
+      <c r="BN117" s="10">
+        <v>0.1994966702099632</v>
+      </c>
     </row>
-    <row r="118" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -22415,8 +22724,11 @@
       <c r="BM118" s="10">
         <v>7.5557435168355447E-2</v>
       </c>
+      <c r="BN118" s="10">
+        <v>8.3330350431327638E-2</v>
+      </c>
     </row>
-    <row r="119" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -22612,8 +22924,11 @@
       <c r="BM119" s="10">
         <v>0.2282769817180772</v>
       </c>
+      <c r="BN119" s="10">
+        <v>0.20421633336617062</v>
+      </c>
     </row>
-    <row r="120" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -22809,8 +23124,11 @@
       <c r="BM120" s="10">
         <v>0.22518651333415773</v>
       </c>
+      <c r="BN120" s="10">
+        <v>0.19504971229693746</v>
+      </c>
     </row>
-    <row r="121" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -23006,8 +23324,11 @@
       <c r="BM121" s="10">
         <v>0.16133474293938388</v>
       </c>
+      <c r="BN121" s="10">
+        <v>0.16210081955630917</v>
+      </c>
     </row>
-    <row r="122" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -23203,8 +23524,11 @@
       <c r="BM122" s="10">
         <v>4.9888619375278553E-2</v>
       </c>
+      <c r="BN122" s="10">
+        <v>2.439818449930109E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -23400,8 +23724,11 @@
       <c r="BM123" s="10">
         <v>0.11455200007639332</v>
       </c>
+      <c r="BN123" s="10">
+        <v>0.13151134920407559</v>
+      </c>
     </row>
-    <row r="124" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -23597,8 +23924,11 @@
       <c r="BM124" s="10">
         <v>2.474551873050701E-2</v>
       </c>
+      <c r="BN124" s="10">
+        <v>2.8281258007755827E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>0</v>
       </c>
@@ -23794,8 +24124,11 @@
       <c r="BM125" s="10">
         <v>3.5329780384863119E-2</v>
       </c>
+      <c r="BN125" s="10">
+        <v>3.8382337141424694E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -23991,8 +24324,11 @@
       <c r="BM126" s="10">
         <v>9.540857586799012E-3</v>
       </c>
+      <c r="BN126" s="10">
+        <v>1.6659034710138299E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -24188,8 +24524,11 @@
       <c r="BM127" s="10">
         <v>-6.5871898422547925E-2</v>
       </c>
+      <c r="BN127" s="10">
+        <v>-1.6462199853203296E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>0</v>
       </c>
@@ -24385,8 +24724,11 @@
       <c r="BM128" s="10">
         <v>4.6991339916275354E-2</v>
       </c>
+      <c r="BN128" s="10">
+        <v>6.1844400324735371E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>0</v>
       </c>
@@ -24582,8 +24924,11 @@
       <c r="BM129" s="10">
         <v>5.9583451747797334E-2</v>
       </c>
+      <c r="BN129" s="10">
+        <v>6.7073170731707377E-2</v>
+      </c>
     </row>
-    <row r="130" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>0</v>
       </c>
@@ -24779,8 +25124,11 @@
       <c r="BM130" s="10">
         <v>5.9754176856534613E-2</v>
       </c>
+      <c r="BN130" s="10">
+        <v>6.0732662984468666E-2</v>
+      </c>
     </row>
-    <row r="131" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>147</v>
       </c>
@@ -24976,8 +25324,11 @@
       <c r="BM131" s="10">
         <v>5.7787647683331889E-2</v>
       </c>
+      <c r="BN131" s="10">
+        <v>5.9833055742239738E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>147</v>
       </c>
@@ -25173,8 +25524,11 @@
       <c r="BM132" s="10">
         <v>5.5301433481725004E-2</v>
       </c>
+      <c r="BN132" s="10">
+        <v>5.5301433481725004E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -25370,8 +25724,11 @@
       <c r="BM133" s="10">
         <v>3.8175449999097388E-2</v>
       </c>
+      <c r="BN133" s="10">
+        <v>7.3165667653643407E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>147</v>
       </c>
@@ -25567,8 +25924,11 @@
       <c r="BM134" s="10">
         <v>1.7282246419587199E-2</v>
       </c>
+      <c r="BN134" s="10">
+        <v>1.7282246419587199E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>147</v>
       </c>
@@ -25764,8 +26124,11 @@
       <c r="BM135" s="10">
         <v>4.3287676310863166E-2</v>
       </c>
+      <c r="BN135" s="10">
+        <v>4.3287676310863166E-2</v>
+      </c>
     </row>
-    <row r="136" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
@@ -25961,8 +26324,11 @@
       <c r="BM136" s="10">
         <v>2.0827619157162802E-2</v>
       </c>
+      <c r="BN136" s="10">
+        <v>2.0827619157162802E-2</v>
+      </c>
     </row>
-    <row r="137" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>147</v>
       </c>
@@ -26158,8 +26524,11 @@
       <c r="BM137" s="10">
         <v>4.4741280902322433E-2</v>
       </c>
+      <c r="BN137" s="10">
+        <v>4.4741280902322433E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
@@ -26355,8 +26724,11 @@
       <c r="BM138" s="10">
         <v>3.4548695230843807E-2</v>
       </c>
+      <c r="BN138" s="10">
+        <v>3.4548695230843807E-2</v>
+      </c>
     </row>
-    <row r="139" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>147</v>
       </c>
@@ -26552,8 +26924,11 @@
       <c r="BM139" s="10">
         <v>2.382803453865745E-2</v>
       </c>
+      <c r="BN139" s="10">
+        <v>2.382803453865745E-2</v>
+      </c>
     </row>
-    <row r="140" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>147</v>
       </c>
@@ -26749,8 +27124,11 @@
       <c r="BM140" s="10">
         <v>1.3508958665957138E-2</v>
       </c>
+      <c r="BN140" s="10">
+        <v>1.3508958665957138E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
@@ -26946,8 +27324,11 @@
       <c r="BM141" s="10">
         <v>2.2342682905083677E-2</v>
       </c>
+      <c r="BN141" s="10">
+        <v>2.8289438490754382E-2</v>
+      </c>
     </row>
-    <row r="142" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>147</v>
       </c>
@@ -27143,8 +27524,11 @@
       <c r="BM142" s="10">
         <v>5.4133892373263048E-2</v>
       </c>
+      <c r="BN142" s="10">
+        <v>5.3605461034685886E-2</v>
+      </c>
     </row>
-    <row r="143" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
@@ -27340,8 +27724,11 @@
       <c r="BM143" s="10">
         <v>-4.0469409092547814E-2</v>
       </c>
+      <c r="BN143" s="10">
+        <v>-6.7657748118396643E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
@@ -27537,8 +27924,11 @@
       <c r="BM144" s="10">
         <v>-2.4455326230417573E-2</v>
       </c>
+      <c r="BN144" s="10">
+        <v>-8.7944337550774909E-3</v>
+      </c>
     </row>
-    <row r="145" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>147</v>
       </c>
@@ -27734,8 +28124,11 @@
       <c r="BM145" s="10">
         <v>-1.576059013021891E-2</v>
       </c>
+      <c r="BN145" s="10">
+        <v>-7.6950283425578081E-2</v>
+      </c>
     </row>
-    <row r="146" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
@@ -27931,8 +28324,11 @@
       <c r="BM146" s="10">
         <v>6.0781832997383933E-2</v>
       </c>
+      <c r="BN146" s="10">
+        <v>0.11413346485396914</v>
+      </c>
     </row>
-    <row r="147" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>147</v>
       </c>
@@ -28128,8 +28524,11 @@
       <c r="BM147" s="10">
         <v>2.5847992852521706E-2</v>
       </c>
+      <c r="BN147" s="10">
+        <v>7.5069061482690991E-3</v>
+      </c>
     </row>
-    <row r="148" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
@@ -28325,8 +28724,11 @@
       <c r="BM148" s="10">
         <v>-4.5060105803812145E-2</v>
       </c>
+      <c r="BN148" s="10">
+        <v>5.0770161477965425E-2</v>
+      </c>
     </row>
-    <row r="149" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>147</v>
       </c>
@@ -28522,8 +28924,11 @@
       <c r="BM149" s="10">
         <v>0.14314956222764152</v>
       </c>
+      <c r="BN149" s="10">
+        <v>0.14314956222764152</v>
+      </c>
     </row>
-    <row r="150" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -28719,8 +29124,11 @@
       <c r="BM150" s="10">
         <v>1.6421419902912682E-2</v>
       </c>
+      <c r="BN150" s="10">
+        <v>2.0380743319960537E-2</v>
+      </c>
     </row>
-    <row r="151" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>147</v>
       </c>
@@ -28916,8 +29324,11 @@
       <c r="BM151" s="10">
         <v>7.3804100227790492E-2</v>
       </c>
+      <c r="BN151" s="10">
+        <v>8.1086332523736093E-2</v>
+      </c>
     </row>
-    <row r="152" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -29113,8 +29524,11 @@
       <c r="BM152" s="10">
         <v>9.0144506460738683E-2</v>
       </c>
+      <c r="BN152" s="10">
+        <v>9.0596217509587351E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>147</v>
       </c>
@@ -29310,8 +29724,11 @@
       <c r="BM153" s="10">
         <v>0.10910010349045063</v>
       </c>
+      <c r="BN153" s="10">
+        <v>0.10832738836559752</v>
+      </c>
     </row>
-    <row r="154" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>147</v>
       </c>
@@ -29507,8 +29924,11 @@
       <c r="BM154" s="10">
         <v>4.6643269557341771E-2</v>
       </c>
+      <c r="BN154" s="10">
+        <v>6.1699859429984016E-2</v>
+      </c>
     </row>
-    <row r="155" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>147</v>
       </c>
@@ -29704,8 +30124,11 @@
       <c r="BM155" s="10">
         <v>4.3183165644606891E-3</v>
       </c>
+      <c r="BN155" s="10">
+        <v>8.9161895957046156E-3</v>
+      </c>
     </row>
-    <row r="156" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -29901,8 +30324,11 @@
       <c r="BM156" s="10">
         <v>0.13724745075685618</v>
       </c>
+      <c r="BN156" s="10">
+        <v>0.13724745075685618</v>
+      </c>
     </row>
-    <row r="157" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
@@ -30098,8 +30524,11 @@
       <c r="BM157" s="10">
         <v>5.1761105496311632E-2</v>
       </c>
+      <c r="BN157" s="10">
+        <v>8.3998450945018011E-2</v>
+      </c>
     </row>
-    <row r="158" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>147</v>
       </c>
@@ -30295,8 +30724,11 @@
       <c r="BM158" s="10">
         <v>1.0763594212497285E-3</v>
       </c>
+      <c r="BN158" s="10">
+        <v>-1.4655341459134386E-3</v>
+      </c>
     </row>
-    <row r="159" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>147</v>
       </c>
@@ -30492,8 +30924,11 @@
       <c r="BM159" s="10">
         <v>0</v>
       </c>
+      <c r="BN159" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>147</v>
       </c>
@@ -30689,8 +31124,11 @@
       <c r="BM160" s="10">
         <v>3.346797461050377E-3</v>
       </c>
+      <c r="BN160" s="10">
+        <v>-1.2684102940405673E-2</v>
+      </c>
     </row>
-    <row r="161" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>147</v>
       </c>
@@ -30886,8 +31324,11 @@
       <c r="BM161" s="10">
         <v>2.9243656288567621E-2</v>
       </c>
+      <c r="BN161" s="10">
+        <v>2.9243656288567621E-2</v>
+      </c>
     </row>
-    <row r="162" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>190</v>
       </c>
@@ -31083,8 +31524,11 @@
       <c r="BM162" s="10">
         <v>0.24811234996196885</v>
       </c>
+      <c r="BN162" s="10">
+        <v>0.26606523118259506</v>
+      </c>
     </row>
-    <row r="163" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>190</v>
       </c>
@@ -31280,8 +31724,11 @@
       <c r="BM163" s="10">
         <v>4.5499626800815651E-3</v>
       </c>
+      <c r="BN163" s="10">
+        <v>2.2585815691417377E-2</v>
+      </c>
     </row>
-    <row r="164" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>190</v>
       </c>
@@ -31477,8 +31924,11 @@
       <c r="BM164" s="10">
         <v>7.1535385888067626E-2</v>
       </c>
+      <c r="BN164" s="10">
+        <v>3.4193639518928176E-2</v>
+      </c>
     </row>
-    <row r="165" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>190</v>
       </c>
@@ -31674,8 +32124,11 @@
       <c r="BM165" s="10">
         <v>0.20290059884470657</v>
       </c>
+      <c r="BN165" s="10">
+        <v>0.20290059884470657</v>
+      </c>
     </row>
-    <row r="166" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>190</v>
       </c>
@@ -31871,8 +32324,11 @@
       <c r="BM166" s="10">
         <v>5.8766323978882928E-2</v>
       </c>
+      <c r="BN166" s="10">
+        <v>6.7041682795654589E-2</v>
+      </c>
     </row>
-    <row r="167" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>190</v>
       </c>
@@ -32068,8 +32524,11 @@
       <c r="BM167" s="10">
         <v>4.3507780885907676E-2</v>
       </c>
+      <c r="BN167" s="10">
+        <v>8.5202973879860533E-2</v>
+      </c>
     </row>
-    <row r="168" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>190</v>
       </c>
@@ -32265,8 +32724,11 @@
       <c r="BM168" s="10">
         <v>2.8736369467607936E-3</v>
       </c>
+      <c r="BN168" s="10">
+        <v>1.4946278803613655E-3</v>
+      </c>
     </row>
-    <row r="169" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>190</v>
       </c>
@@ -32462,8 +32924,11 @@
       <c r="BM169" s="10">
         <v>2.9407815227608491E-2</v>
       </c>
+      <c r="BN169" s="10">
+        <v>8.5747616489861622E-2</v>
+      </c>
     </row>
-    <row r="170" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>190</v>
       </c>
@@ -32659,8 +33124,11 @@
       <c r="BM170" s="10">
         <v>9.1202340359578526E-2</v>
       </c>
+      <c r="BN170" s="10">
+        <v>9.2387509697439807E-2</v>
+      </c>
     </row>
-    <row r="171" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
@@ -32856,8 +33324,11 @@
       <c r="BM171" s="10">
         <v>1.8286488316965333E-3</v>
       </c>
+      <c r="BN171" s="10">
+        <v>4.5071438229404848E-5</v>
+      </c>
     </row>
-    <row r="172" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -33053,8 +33524,11 @@
       <c r="BM172" s="10">
         <v>0.2245632065775951</v>
       </c>
+      <c r="BN172" s="10">
+        <v>0.23789429994465983</v>
+      </c>
     </row>
-    <row r="173" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>190</v>
       </c>
@@ -33250,8 +33724,11 @@
       <c r="BM173" s="10">
         <v>0.10528016206351576</v>
       </c>
+      <c r="BN173" s="10">
+        <v>5.8253234443077062E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>190</v>
       </c>
@@ -33447,8 +33924,11 @@
       <c r="BM174" s="10">
         <v>-9.0386121589139168E-2</v>
       </c>
+      <c r="BN174" s="10">
+        <v>-7.4576034371343192E-2</v>
+      </c>
     </row>
-    <row r="175" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
@@ -33644,8 +34124,11 @@
       <c r="BM175" s="10">
         <v>8.1672001647292269E-2</v>
       </c>
+      <c r="BN175" s="10">
+        <v>0.11649912955579267</v>
+      </c>
     </row>
-    <row r="176" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>190</v>
       </c>
@@ -33841,8 +34324,11 @@
       <c r="BM176" s="10">
         <v>4.250298437022848E-2</v>
       </c>
+      <c r="BN176" s="10">
+        <v>4.9276810749285138E-2</v>
+      </c>
     </row>
-    <row r="177" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>190</v>
       </c>
@@ -34038,8 +34524,11 @@
       <c r="BM177" s="10">
         <v>5.7813306294643318E-2</v>
       </c>
+      <c r="BN177" s="10">
+        <v>5.7267797476674875E-2</v>
+      </c>
     </row>
-    <row r="178" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -34235,8 +34724,11 @@
       <c r="BM178" s="10">
         <v>-1.0390395496235882E-3</v>
       </c>
+      <c r="BN178" s="10">
+        <v>1.6726336462473679E-3</v>
+      </c>
     </row>
-    <row r="179" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>190</v>
       </c>
@@ -34432,8 +34924,11 @@
       <c r="BM179" s="10">
         <v>8.3481191616232797E-2</v>
       </c>
+      <c r="BN179" s="10">
+        <v>0.11490816582812791</v>
+      </c>
     </row>
-    <row r="180" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>190</v>
       </c>
@@ -34629,8 +35124,11 @@
       <c r="BM180" s="10">
         <v>0.14651120492423164</v>
       </c>
+      <c r="BN180" s="10">
+        <v>6.9764498485738846E-2</v>
+      </c>
     </row>
-    <row r="181" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
@@ -34826,8 +35324,11 @@
       <c r="BM181" s="10">
         <v>5.258991178466399E-2</v>
       </c>
+      <c r="BN181" s="10">
+        <v>5.0577947683694058E-2</v>
+      </c>
     </row>
-    <row r="182" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>190</v>
       </c>
@@ -35023,8 +35524,11 @@
       <c r="BM182" s="10">
         <v>9.1690906791450644E-2</v>
       </c>
+      <c r="BN182" s="10">
+        <v>4.032037095584351E-2</v>
+      </c>
     </row>
-    <row r="183" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
@@ -35220,8 +35724,11 @@
       <c r="BM183" s="10">
         <v>-3.3318051254222159E-2</v>
       </c>
+      <c r="BN183" s="10">
+        <v>-4.6757039731085137E-2</v>
+      </c>
     </row>
-    <row r="184" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
@@ -35417,8 +35924,11 @@
       <c r="BM184" s="10">
         <v>0.11198825878084584</v>
       </c>
+      <c r="BN184" s="10">
+        <v>0.20409448513738715</v>
+      </c>
     </row>
-    <row r="185" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>190</v>
       </c>
@@ -35614,8 +36124,11 @@
       <c r="BM185" s="10">
         <v>4.1881646198193012E-2</v>
       </c>
+      <c r="BN185" s="10">
+        <v>4.3730672028033934E-2</v>
+      </c>
     </row>
-    <row r="186" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>190</v>
       </c>
@@ -35811,8 +36324,11 @@
       <c r="BM186" s="10">
         <v>4.6806610805941062E-2</v>
       </c>
+      <c r="BN186" s="10">
+        <v>5.8099241172412608E-2</v>
+      </c>
     </row>
-    <row r="187" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
@@ -36008,8 +36524,11 @@
       <c r="BM187" s="10">
         <v>-4.5341042022856048E-2</v>
       </c>
+      <c r="BN187" s="10">
+        <v>6.1599474351152761E-3</v>
+      </c>
     </row>
-    <row r="188" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
@@ -36205,8 +36724,11 @@
       <c r="BM188" s="10">
         <v>3.4174842905962954E-3</v>
       </c>
+      <c r="BN188" s="10">
+        <v>1.553910132873515E-2</v>
+      </c>
     </row>
-    <row r="189" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -36402,8 +36924,11 @@
       <c r="BM189" s="10">
         <v>8.6432920055103724E-2</v>
       </c>
+      <c r="BN189" s="10">
+        <v>9.219506581568071E-2</v>
+      </c>
     </row>
-    <row r="190" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>190</v>
       </c>
@@ -36599,8 +37124,11 @@
       <c r="BM190" s="10">
         <v>1.2522680315059764E-2</v>
       </c>
+      <c r="BN190" s="10">
+        <v>3.5470439552371946E-2</v>
+      </c>
     </row>
-    <row r="191" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
@@ -36796,8 +37324,11 @@
       <c r="BM191" s="10">
         <v>-1.14771253725231E-2</v>
       </c>
+      <c r="BN191" s="10">
+        <v>-1.14771253725231E-2</v>
+      </c>
     </row>
-    <row r="192" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>190</v>
       </c>
@@ -36993,8 +37524,11 @@
       <c r="BM192" s="10">
         <v>0.16240483066421629</v>
       </c>
+      <c r="BN192" s="10">
+        <v>0.18655815174586499</v>
+      </c>
     </row>
-    <row r="193" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
@@ -37190,8 +37724,11 @@
       <c r="BM193" s="10">
         <v>3.6404175742879463E-2</v>
       </c>
+      <c r="BN193" s="10">
+        <v>6.1184142428320154E-2</v>
+      </c>
     </row>
-    <row r="194" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
@@ -37387,8 +37924,11 @@
       <c r="BM194" s="10">
         <v>6.5096554935745621E-2</v>
       </c>
+      <c r="BN194" s="10">
+        <v>8.3935098072054126E-2</v>
+      </c>
     </row>
-    <row r="195" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>190</v>
       </c>
@@ -37584,8 +38124,11 @@
       <c r="BM195" s="10">
         <v>-3.5641044420844481E-2</v>
       </c>
+      <c r="BN195" s="10">
+        <v>7.207737594617325E-2</v>
+      </c>
     </row>
-    <row r="196" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>190</v>
       </c>
@@ -37781,8 +38324,11 @@
       <c r="BM196" s="10">
         <v>5.6882704519985117E-2</v>
       </c>
+      <c r="BN196" s="10">
+        <v>5.4741801767778986E-2</v>
+      </c>
     </row>
-    <row r="197" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>190</v>
       </c>
@@ -37978,8 +38524,11 @@
       <c r="BM197" s="10">
         <v>-7.4769178483091725E-3</v>
       </c>
+      <c r="BN197" s="10">
+        <v>0.10334411085450346</v>
+      </c>
     </row>
-    <row r="198" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>190</v>
       </c>
@@ -38175,8 +38724,11 @@
       <c r="BM198" s="10">
         <v>0.16276253944646246</v>
       </c>
+      <c r="BN198" s="10">
+        <v>0.1783710155493099</v>
+      </c>
     </row>
-    <row r="199" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>190</v>
       </c>
@@ -38372,8 +38924,11 @@
       <c r="BM199" s="10">
         <v>3.2125164033651066E-2</v>
       </c>
+      <c r="BN199" s="10">
+        <v>3.5438150876301755E-2</v>
+      </c>
     </row>
-    <row r="200" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>190</v>
       </c>
@@ -38569,8 +39124,11 @@
       <c r="BM200" s="10">
         <v>-0.13854704247717353</v>
       </c>
+      <c r="BN200" s="10">
+        <v>-0.14472325969857924</v>
+      </c>
     </row>
-    <row r="201" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>190</v>
       </c>
@@ -38766,8 +39324,11 @@
       <c r="BM201" s="10">
         <v>4.8453461975028533E-2</v>
       </c>
+      <c r="BN201" s="10">
+        <v>4.8767634181936081E-2</v>
+      </c>
     </row>
-    <row r="202" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>190</v>
       </c>
@@ -38963,8 +39524,11 @@
       <c r="BM202" s="10">
         <v>1.6360633205936503E-2</v>
       </c>
+      <c r="BN202" s="10">
+        <v>3.6307195629229572E-2</v>
+      </c>
     </row>
-    <row r="203" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -39160,8 +39724,11 @@
       <c r="BM203" s="10">
         <v>1.2591446257737671E-2</v>
       </c>
+      <c r="BN203" s="10">
+        <v>-3.4065472259624974E-2</v>
+      </c>
     </row>
-    <row r="204" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>190</v>
       </c>
@@ -39357,8 +39924,11 @@
       <c r="BM204" s="10">
         <v>0.13285877099564658</v>
       </c>
+      <c r="BN204" s="10">
+        <v>0.17958749894194326</v>
+      </c>
     </row>
-    <row r="205" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>190</v>
       </c>
@@ -39554,8 +40124,11 @@
       <c r="BM205" s="10">
         <v>7.7029957659340731E-2</v>
       </c>
+      <c r="BN205" s="10">
+        <v>0.13556194192674043</v>
+      </c>
     </row>
-    <row r="206" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>190</v>
       </c>
@@ -39751,8 +40324,11 @@
       <c r="BM206" s="10">
         <v>-5.5387517205050196E-2</v>
       </c>
+      <c r="BN206" s="10">
+        <v>-5.4911723223844078E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>190</v>
       </c>
@@ -39948,8 +40524,11 @@
       <c r="BM207" s="10">
         <v>-4.3909885901361578E-2</v>
       </c>
+      <c r="BN207" s="10">
+        <v>-9.1345952247167572E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>190</v>
       </c>
@@ -40145,8 +40724,11 @@
       <c r="BM208" s="10">
         <v>-3.7054954556214881E-4</v>
       </c>
+      <c r="BN208" s="10">
+        <v>7.7083746723340285E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>190</v>
       </c>
@@ -40342,8 +40924,11 @@
       <c r="BM209" s="10">
         <v>3.4478314745972627E-2</v>
       </c>
+      <c r="BN209" s="10">
+        <v>1.8258370914316924E-3</v>
+      </c>
     </row>
-    <row r="210" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>252</v>
       </c>
@@ -40539,8 +41124,11 @@
       <c r="BM210" s="10">
         <v>6.9437644261033826E-2</v>
       </c>
+      <c r="BN210" s="10">
+        <v>8.41697558928447E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>252</v>
       </c>
@@ -40736,8 +41324,11 @@
       <c r="BM211" s="10">
         <v>7.7118622085030175E-2</v>
       </c>
+      <c r="BN211" s="10">
+        <v>7.7702819282928992E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>252</v>
       </c>
@@ -40933,8 +41524,11 @@
       <c r="BM212" s="10">
         <v>6.8664158551293486E-2</v>
       </c>
+      <c r="BN212" s="10">
+        <v>5.5631201886708448E-2</v>
+      </c>
     </row>
-    <row r="213" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>252</v>
       </c>
@@ -41130,8 +41724,11 @@
       <c r="BM213" s="10">
         <v>0.10019500493631739</v>
       </c>
+      <c r="BN213" s="10">
+        <v>9.1140817944941777E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>252</v>
       </c>
@@ -41327,8 +41924,11 @@
       <c r="BM214" s="10">
         <v>-2.0693827742855109E-2</v>
       </c>
+      <c r="BN214" s="10">
+        <v>-3.4232029448647006E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>252</v>
       </c>
@@ -41524,8 +42124,11 @@
       <c r="BM215" s="10">
         <v>1.5704894083272469E-2</v>
       </c>
+      <c r="BN215" s="10">
+        <v>3.506208911614328E-2</v>
+      </c>
     </row>
-    <row r="216" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>261</v>
       </c>
@@ -41721,8 +42324,11 @@
       <c r="BM216" s="10">
         <v>1.7865036806396395E-2</v>
       </c>
+      <c r="BN216" s="10">
+        <v>1.1954871321762761E-2</v>
+      </c>
     </row>
-    <row r="217" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>261</v>
       </c>
@@ -41918,8 +42524,11 @@
       <c r="BM217" s="10">
         <v>-0.13193648407403924</v>
       </c>
+      <c r="BN217" s="10">
+        <v>-9.3723574180212377E-2</v>
+      </c>
     </row>
-    <row r="218" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -42115,8 +42724,11 @@
       <c r="BM218" s="10">
         <v>0.10879687829996065</v>
       </c>
+      <c r="BN218" s="10">
+        <v>0.10400040054073001</v>
+      </c>
     </row>
-    <row r="219" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>261</v>
       </c>
@@ -42312,8 +42924,11 @@
       <c r="BM219" s="10">
         <v>1.5304707861222511E-2</v>
       </c>
+      <c r="BN219" s="10">
+        <v>1.5304707861222511E-2</v>
+      </c>
     </row>
-    <row r="220" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>261</v>
       </c>
@@ -42509,8 +43124,11 @@
       <c r="BM220" s="10">
         <v>5.4470628325775206E-2</v>
       </c>
+      <c r="BN220" s="10">
+        <v>4.6651402404121356E-2</v>
+      </c>
     </row>
-    <row r="221" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>261</v>
       </c>
@@ -42706,8 +43324,11 @@
       <c r="BM221" s="10">
         <v>1.3847345850301007E-2</v>
       </c>
+      <c r="BN221" s="10">
+        <v>3.7924616100511788E-2</v>
+      </c>
     </row>
-    <row r="222" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>261</v>
       </c>
@@ -42903,8 +43524,11 @@
       <c r="BM222" s="10">
         <v>-2.760225819171569E-3</v>
       </c>
+      <c r="BN222" s="10">
+        <v>-2.760225819171569E-3</v>
+      </c>
     </row>
-    <row r="223" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>261</v>
       </c>
@@ -43100,8 +43724,11 @@
       <c r="BM223" s="10">
         <v>4.1576299608719891E-2</v>
       </c>
+      <c r="BN223" s="10">
+        <v>2.6621709475168842E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>261</v>
       </c>
@@ -43297,8 +43924,11 @@
       <c r="BM224" s="10">
         <v>0.11722956188467659</v>
       </c>
+      <c r="BN224" s="10">
+        <v>0.11722956188467659</v>
+      </c>
     </row>
-    <row r="225" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>261</v>
       </c>
@@ -43494,8 +44124,11 @@
       <c r="BM225" s="10">
         <v>2.178198008904908E-2</v>
       </c>
+      <c r="BN225" s="10">
+        <v>-4.2053129221071517E-2</v>
+      </c>
     </row>
-    <row r="226" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>261</v>
       </c>
@@ -43691,8 +44324,11 @@
       <c r="BM226" s="10">
         <v>-2.4519301585143372E-2</v>
       </c>
+      <c r="BN226" s="10">
+        <v>-4.5832058646906204E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>261</v>
       </c>
@@ -43888,8 +44524,11 @@
       <c r="BM227" s="10">
         <v>4.8714812360905801E-2</v>
       </c>
+      <c r="BN227" s="10">
+        <v>5.1585885870580883E-2</v>
+      </c>
     </row>
-    <row r="228" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>261</v>
       </c>
@@ -44085,8 +44724,11 @@
       <c r="BM228" s="10">
         <v>-1.1806855248382431E-2</v>
       </c>
+      <c r="BN228" s="10">
+        <v>6.8511538502840086E-3</v>
+      </c>
     </row>
-    <row r="229" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>261</v>
       </c>
@@ -44282,8 +44924,11 @@
       <c r="BM229" s="10">
         <v>0.13046597725120312</v>
       </c>
+      <c r="BN229" s="10">
+        <v>0.12183753097202321</v>
+      </c>
     </row>
-    <row r="230" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -44479,8 +45124,11 @@
       <c r="BM230" s="10">
         <v>0.1246598759874975</v>
       </c>
+      <c r="BN230" s="10">
+        <v>0.12152586371062313</v>
+      </c>
     </row>
-    <row r="231" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>261</v>
       </c>
@@ -44676,8 +45324,11 @@
       <c r="BM231" s="10">
         <v>1.2786197576151181E-2</v>
       </c>
+      <c r="BN231" s="10">
+        <v>1.9325207560501712E-2</v>
+      </c>
     </row>
-    <row r="232" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>261</v>
       </c>
@@ -44873,8 +45524,11 @@
       <c r="BM232" s="10">
         <v>9.4945622052824419E-3</v>
       </c>
+      <c r="BN232" s="10">
+        <v>2.8035307833231604E-2</v>
+      </c>
     </row>
-    <row r="233" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>261</v>
       </c>
@@ -45070,8 +45724,11 @@
       <c r="BM233" s="10">
         <v>2.2535316540847727E-2</v>
       </c>
+      <c r="BN233" s="10">
+        <v>4.7033608192182941E-2</v>
+      </c>
     </row>
-    <row r="234" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>261</v>
       </c>
@@ -45267,8 +45924,11 @@
       <c r="BM234" s="10">
         <v>-0.22377786239418884</v>
       </c>
+      <c r="BN234" s="10">
+        <v>-0.21566828459808218</v>
+      </c>
     </row>
-    <row r="235" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>261</v>
       </c>
@@ -45464,8 +46124,11 @@
       <c r="BM235" s="10">
         <v>8.0216442936422272E-2</v>
       </c>
+      <c r="BN235" s="10">
+        <v>9.7142122288280675E-3</v>
+      </c>
     </row>
-    <row r="236" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>261</v>
       </c>
@@ -45661,8 +46324,11 @@
       <c r="BM236" s="10">
         <v>-2.6546117337086894E-2</v>
       </c>
+      <c r="BN236" s="10">
+        <v>-3.1072379307863884E-2</v>
+      </c>
     </row>
-    <row r="237" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>261</v>
       </c>
@@ -45858,8 +46524,11 @@
       <c r="BM237" s="10">
         <v>3.7256986323772834E-2</v>
       </c>
+      <c r="BN237" s="10">
+        <v>1.8437749825438443E-2</v>
+      </c>
     </row>
-    <row r="238" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
@@ -46055,8 +46724,11 @@
       <c r="BM238" s="10">
         <v>-8.3979267837131166E-2</v>
       </c>
+      <c r="BN238" s="10">
+        <v>-6.4741314904744218E-2</v>
+      </c>
     </row>
-    <row r="239" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>261</v>
       </c>
@@ -46252,8 +46924,11 @@
       <c r="BM239" s="10">
         <v>-6.3705649520644503E-3</v>
       </c>
+      <c r="BN239" s="10">
+        <v>2.3616955308499721E-2</v>
+      </c>
     </row>
-    <row r="240" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>261</v>
       </c>
@@ -46449,8 +47124,11 @@
       <c r="BM240" s="10">
         <v>9.2595777397849188E-2</v>
       </c>
+      <c r="BN240" s="10">
+        <v>9.2584724329792589E-2</v>
+      </c>
     </row>
-    <row r="241" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>261</v>
       </c>
@@ -46646,8 +47324,11 @@
       <c r="BM241" s="10">
         <v>1.7516430701525865E-2</v>
       </c>
+      <c r="BN241" s="10">
+        <v>1.2532772479760368E-2</v>
+      </c>
     </row>
-    <row r="242" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
@@ -46843,8 +47524,11 @@
       <c r="BM242" s="10">
         <v>6.3113675989273643E-2</v>
       </c>
+      <c r="BN242" s="10">
+        <v>6.5926382891219326E-2</v>
+      </c>
     </row>
-    <row r="243" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>261</v>
       </c>
@@ -47040,8 +47724,11 @@
       <c r="BM243" s="10">
         <v>4.5861835454839905E-2</v>
       </c>
+      <c r="BN243" s="10">
+        <v>3.2676318390604031E-2</v>
+      </c>
     </row>
-    <row r="244" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>261</v>
       </c>
@@ -47237,8 +47924,11 @@
       <c r="BM244" s="10">
         <v>2.7267467776966425E-2</v>
       </c>
+      <c r="BN244" s="10">
+        <v>3.9638562097610741E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>261</v>
       </c>
@@ -47434,8 +48124,11 @@
       <c r="BM245" s="10">
         <v>8.3620809986240996E-2</v>
       </c>
+      <c r="BN245" s="10">
+        <v>8.8199701967216493E-2</v>
+      </c>
     </row>
-    <row r="246" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>261</v>
       </c>
@@ -47631,8 +48324,11 @@
       <c r="BM246" s="10">
         <v>0.25355108241549562</v>
       </c>
+      <c r="BN246" s="10">
+        <v>0.12664532194948408</v>
+      </c>
     </row>
-    <row r="247" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>309</v>
       </c>
@@ -47828,8 +48524,11 @@
       <c r="BM247" s="10">
         <v>9.0549576749958227E-2</v>
       </c>
+      <c r="BN247" s="10">
+        <v>0.1221296027154497</v>
+      </c>
     </row>
-    <row r="248" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>309</v>
       </c>
@@ -48025,8 +48724,11 @@
       <c r="BM248" s="10">
         <v>8.8551273197723379E-3</v>
       </c>
+      <c r="BN248" s="10">
+        <v>2.3880910131904409E-2</v>
+      </c>
     </row>
-    <row r="249" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>309</v>
       </c>
@@ -48222,8 +48924,11 @@
       <c r="BM249" s="10">
         <v>8.1389461841365085E-2</v>
       </c>
+      <c r="BN249" s="10">
+        <v>7.1902531504405065E-2</v>
+      </c>
     </row>
-    <row r="250" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>309</v>
       </c>
@@ -48419,8 +49124,11 @@
       <c r="BM250" s="10">
         <v>2.3919662986948698E-2</v>
       </c>
+      <c r="BN250" s="10">
+        <v>1.8769395774907993E-2</v>
+      </c>
     </row>
-    <row r="251" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>309</v>
       </c>
@@ -48616,8 +49324,11 @@
       <c r="BM251" s="10">
         <v>3.7183583928517727E-2</v>
       </c>
+      <c r="BN251" s="10">
+        <v>8.1710935080763214E-3</v>
+      </c>
     </row>
-    <row r="252" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>309</v>
       </c>
@@ -48813,8 +49524,11 @@
       <c r="BM252" s="10">
         <v>7.3280721533258264E-2</v>
       </c>
+      <c r="BN252" s="10">
+        <v>7.9250556389420801E-2</v>
+      </c>
     </row>
-    <row r="253" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>309</v>
       </c>
@@ -49010,8 +49724,11 @@
       <c r="BM253" s="10">
         <v>0.14108693614228862</v>
       </c>
+      <c r="BN253" s="10">
+        <v>7.466958911279753E-2</v>
+      </c>
     </row>
-    <row r="254" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>309</v>
       </c>
@@ -49207,8 +49924,11 @@
       <c r="BM254" s="10">
         <v>6.4281984868804987E-2</v>
       </c>
+      <c r="BN254" s="10">
+        <v>0.15710917412595626</v>
+      </c>
     </row>
-    <row r="255" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -49404,8 +50124,11 @@
       <c r="BM255" s="10">
         <v>3.7452816750943585E-2</v>
       </c>
+      <c r="BN255" s="10">
+        <v>3.0993717005314947E-2</v>
+      </c>
     </row>
-    <row r="256" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>309</v>
       </c>
@@ -49601,8 +50324,11 @@
       <c r="BM256" s="10">
         <v>2.4733958486987673E-2</v>
       </c>
+      <c r="BN256" s="10">
+        <v>2.4733958486987673E-2</v>
+      </c>
     </row>
-    <row r="257" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>309</v>
       </c>
@@ -49798,8 +50524,11 @@
       <c r="BM257" s="10">
         <v>5.7717481851719654E-2</v>
       </c>
+      <c r="BN257" s="10">
+        <v>0.10828868404848757</v>
+      </c>
     </row>
-    <row r="258" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>309</v>
       </c>
@@ -49995,8 +50724,11 @@
       <c r="BM258" s="10">
         <v>1.4792206856813594E-2</v>
       </c>
+      <c r="BN258" s="10">
+        <v>-4.9866797713576383E-2</v>
+      </c>
     </row>
-    <row r="259" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>309</v>
       </c>
@@ -50192,8 +50924,11 @@
       <c r="BM259" s="10">
         <v>-0.11738317757009353</v>
       </c>
+      <c r="BN259" s="10">
+        <v>-2.6906432276966874E-2</v>
+      </c>
     </row>
-    <row r="260" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>309</v>
       </c>
@@ -50389,8 +51124,11 @@
       <c r="BM260" s="10">
         <v>-1.0275360361229557E-2</v>
       </c>
+      <c r="BN260" s="10">
+        <v>-1.0275360361229557E-2</v>
+      </c>
     </row>
-    <row r="261" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -50586,8 +51324,11 @@
       <c r="BM261" s="10">
         <v>6.2812375858023239E-2</v>
       </c>
+      <c r="BN261" s="10">
+        <v>5.8632070311075424E-2</v>
+      </c>
     </row>
-    <row r="262" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>309</v>
       </c>
@@ -50783,8 +51524,11 @@
       <c r="BM262" s="10">
         <v>8.2122332442622348E-2</v>
       </c>
+      <c r="BN262" s="10">
+        <v>7.4558287585920535E-2</v>
+      </c>
     </row>
-    <row r="263" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>309</v>
       </c>
@@ -50980,8 +51724,11 @@
       <c r="BM263" s="10">
         <v>-0.16591281732345786</v>
       </c>
+      <c r="BN263" s="10">
+        <v>-0.15837056754444334</v>
+      </c>
     </row>
-    <row r="264" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>309</v>
       </c>
@@ -51177,8 +51924,11 @@
       <c r="BM264" s="10">
         <v>8.2824088345694324E-2</v>
       </c>
+      <c r="BN264" s="10">
+        <v>6.573793445702858E-2</v>
+      </c>
     </row>
-    <row r="265" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>309</v>
       </c>
@@ -51374,8 +52124,11 @@
       <c r="BM265" s="10">
         <v>0.10183681361175556</v>
       </c>
+      <c r="BN265" s="10">
+        <v>0.10183681361175556</v>
+      </c>
     </row>
-    <row r="266" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>309</v>
       </c>
@@ -51571,8 +52324,11 @@
       <c r="BM266" s="10">
         <v>-0.11423028118505985</v>
       </c>
+      <c r="BN266" s="10">
+        <v>-7.5237336456223658E-2</v>
+      </c>
     </row>
-    <row r="267" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>309</v>
       </c>
@@ -51768,8 +52524,11 @@
       <c r="BM267" s="10">
         <v>0.11913582106034593</v>
       </c>
+      <c r="BN267" s="10">
+        <v>0.11913582106034593</v>
+      </c>
     </row>
-    <row r="268" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>309</v>
       </c>
@@ -51965,8 +52724,11 @@
       <c r="BM268" s="10">
         <v>-6.3569636370445215E-3</v>
       </c>
+      <c r="BN268" s="10">
+        <v>-2.6211985054155007E-2</v>
+      </c>
     </row>
-    <row r="269" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>309</v>
       </c>
@@ -52162,8 +52924,11 @@
       <c r="BM269" s="10">
         <v>-7.858697408312032E-2</v>
       </c>
+      <c r="BN269" s="10">
+        <v>-0.14426663458067623</v>
+      </c>
     </row>
-    <row r="270" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>309</v>
       </c>
@@ -52359,8 +53124,11 @@
       <c r="BM270" s="10">
         <v>2.2185038259790568E-2</v>
       </c>
+      <c r="BN270" s="10">
+        <v>2.6614677253372854E-2</v>
+      </c>
     </row>
-    <row r="271" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>309</v>
       </c>
@@ -52556,8 +53324,11 @@
       <c r="BM271" s="10">
         <v>7.1716338021263093E-2</v>
       </c>
+      <c r="BN271" s="10">
+        <v>6.4470309405538773E-2</v>
+      </c>
     </row>
-    <row r="272" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>309</v>
       </c>
@@ -52753,8 +53524,11 @@
       <c r="BM272" s="10">
         <v>1.0798491196990279E-2</v>
       </c>
+      <c r="BN272" s="10">
+        <v>1.951783023606235E-2</v>
+      </c>
     </row>
-    <row r="273" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>309</v>
       </c>
@@ -52950,8 +53724,11 @@
       <c r="BM273" s="10">
         <v>1.0895319294706551E-2</v>
       </c>
+      <c r="BN273" s="10">
+        <v>2.1327815689473395E-2</v>
+      </c>
     </row>
-    <row r="274" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>309</v>
       </c>
@@ -53147,8 +53924,11 @@
       <c r="BM274" s="10">
         <v>8.923526936870152E-2</v>
       </c>
+      <c r="BN274" s="10">
+        <v>9.488933763324181E-2</v>
+      </c>
     </row>
-    <row r="275" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>309</v>
       </c>
@@ -53344,8 +54124,11 @@
       <c r="BM275" s="10">
         <v>-2.0240532241555753E-2</v>
       </c>
+      <c r="BN275" s="10">
+        <v>-2.5007634623867459E-2</v>
+      </c>
     </row>
-    <row r="276" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>309</v>
       </c>
@@ -53541,8 +54324,11 @@
       <c r="BM276" s="10">
         <v>6.4632524574308459E-3</v>
       </c>
+      <c r="BN276" s="10">
+        <v>6.4632524574308459E-3</v>
+      </c>
     </row>
-    <row r="277" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -53738,8 +54524,11 @@
       <c r="BM277" s="10">
         <v>1.9619506120059249E-2</v>
       </c>
+      <c r="BN277" s="10">
+        <v>1.9619506120059249E-2</v>
+      </c>
     </row>
-    <row r="278" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>309</v>
       </c>
@@ -53935,8 +54724,11 @@
       <c r="BM278" s="10">
         <v>5.9793053175677624E-2</v>
       </c>
+      <c r="BN278" s="10">
+        <v>6.1534966061099539E-2</v>
+      </c>
     </row>
-    <row r="279" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>309</v>
       </c>
@@ -54132,8 +54924,11 @@
       <c r="BM279" s="10">
         <v>3.6654366543665606E-2</v>
       </c>
+      <c r="BN279" s="10">
+        <v>2.9832248154031404E-2</v>
+      </c>
     </row>
-    <row r="280" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>309</v>
       </c>
@@ -54329,8 +55124,11 @@
       <c r="BM280" s="10">
         <v>3.8563854353327987E-2</v>
       </c>
+      <c r="BN280" s="10">
+        <v>2.871023522630578E-2</v>
+      </c>
     </row>
-    <row r="281" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>309</v>
       </c>
@@ -54526,8 +55324,11 @@
       <c r="BM281" s="10">
         <v>6.3623941969976228E-2</v>
       </c>
+      <c r="BN281" s="10">
+        <v>6.3623941969976228E-2</v>
+      </c>
     </row>
-    <row r="282" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>309</v>
       </c>
@@ -54723,8 +55524,11 @@
       <c r="BM282" s="10">
         <v>3.2886689903161015E-2</v>
       </c>
+      <c r="BN282" s="10">
+        <v>3.2886689903161015E-2</v>
+      </c>
     </row>
-    <row r="283" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>356</v>
       </c>
@@ -54920,8 +55724,11 @@
       <c r="BM283" s="10">
         <v>0.4446934202485231</v>
       </c>
+      <c r="BN283" s="10">
+        <v>0.44572905331882495</v>
+      </c>
     </row>
-    <row r="284" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>356</v>
       </c>
@@ -55117,8 +55924,11 @@
       <c r="BM284" s="10">
         <v>5.9871176656928649E-2</v>
       </c>
+      <c r="BN284" s="10">
+        <v>5.9871176656928649E-2</v>
+      </c>
     </row>
-    <row r="285" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>356</v>
       </c>
@@ -55314,8 +56124,11 @@
       <c r="BM285" s="10">
         <v>5.0391937290033439E-2</v>
       </c>
+      <c r="BN285" s="10">
+        <v>3.6651018562384285E-2</v>
+      </c>
     </row>
-    <row r="286" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>356</v>
       </c>
@@ -55511,8 +56324,11 @@
       <c r="BM286" s="10">
         <v>0.1080788089152338</v>
       </c>
+      <c r="BN286" s="10">
+        <v>6.808711673831902E-2</v>
+      </c>
     </row>
-    <row r="287" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>356</v>
       </c>
@@ -55708,8 +56524,11 @@
       <c r="BM287" s="10">
         <v>0.23258547008547015</v>
       </c>
+      <c r="BN287" s="10">
+        <v>0.28378559974198869</v>
+      </c>
     </row>
-    <row r="288" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>356</v>
       </c>
@@ -55905,8 +56724,11 @@
       <c r="BM288" s="10">
         <v>0.19329363436614333</v>
       </c>
+      <c r="BN288" s="10">
+        <v>0.15468048782981159</v>
+      </c>
     </row>
-    <row r="289" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>356</v>
       </c>
@@ -56102,8 +56924,11 @@
       <c r="BM289" s="10">
         <v>0.12201279718707192</v>
       </c>
+      <c r="BN289" s="10">
+        <v>7.965425662233816E-2</v>
+      </c>
     </row>
-    <row r="290" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>356</v>
       </c>
@@ -56299,8 +57124,11 @@
       <c r="BM290" s="10">
         <v>7.8020011825867819E-2</v>
       </c>
+      <c r="BN290" s="10">
+        <v>7.9264031699469273E-2</v>
+      </c>
     </row>
-    <row r="291" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>356</v>
       </c>
@@ -56496,8 +57324,11 @@
       <c r="BM291" s="10">
         <v>0.22107796186209239</v>
       </c>
+      <c r="BN291" s="10">
+        <v>0.23452675906942866</v>
+      </c>
     </row>
-    <row r="292" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>356</v>
       </c>
@@ -56693,8 +57524,11 @@
       <c r="BM292" s="10">
         <v>5.8578091190441217E-2</v>
       </c>
+      <c r="BN292" s="10">
+        <v>5.113850368087669E-2</v>
+      </c>
     </row>
-    <row r="293" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>356</v>
       </c>
@@ -56890,8 +57724,11 @@
       <c r="BM293" s="10">
         <v>8.9338571659220989E-3</v>
       </c>
+      <c r="BN293" s="10">
+        <v>8.9338571659220989E-3</v>
+      </c>
     </row>
-    <row r="294" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>356</v>
       </c>
@@ -57087,8 +57924,11 @@
       <c r="BM294" s="10">
         <v>6.963585009383344E-2</v>
       </c>
+      <c r="BN294" s="10">
+        <v>6.963585009383344E-2</v>
+      </c>
     </row>
-    <row r="295" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>356</v>
       </c>
@@ -57284,8 +58124,11 @@
       <c r="BM295" s="10">
         <v>-2.3936238371447427E-2</v>
       </c>
+      <c r="BN295" s="10">
+        <v>-2.3936238371447427E-2</v>
+      </c>
     </row>
-    <row r="296" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>356</v>
       </c>
@@ -57481,8 +58324,11 @@
       <c r="BM296" s="10">
         <v>0.10060370596756218</v>
       </c>
+      <c r="BN296" s="10">
+        <v>0.12698107690379734</v>
+      </c>
     </row>
-    <row r="297" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>356</v>
       </c>
@@ -57678,8 +58524,11 @@
       <c r="BM297" s="10">
         <v>3.9562217463716465E-2</v>
       </c>
+      <c r="BN297" s="10">
+        <v>7.367118724720445E-2</v>
+      </c>
     </row>
-    <row r="298" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>356</v>
       </c>
@@ -57875,8 +58724,11 @@
       <c r="BM298" s="10">
         <v>7.9660696095841477E-2</v>
       </c>
+      <c r="BN298" s="10">
+        <v>7.9656928919848102E-2</v>
+      </c>
     </row>
-    <row r="299" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>356</v>
       </c>
@@ -58072,8 +58924,11 @@
       <c r="BM299" s="10">
         <v>4.9139958017786922E-2</v>
       </c>
+      <c r="BN299" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
     </row>
-    <row r="300" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>356</v>
       </c>
@@ -58269,8 +59124,11 @@
       <c r="BM300" s="10">
         <v>2.668483197093563E-2</v>
       </c>
+      <c r="BN300" s="10">
+        <v>-1.7990694158199316E-2</v>
+      </c>
     </row>
-    <row r="301" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>356</v>
       </c>
@@ -58466,8 +59324,11 @@
       <c r="BM301" s="10">
         <v>0</v>
       </c>
+      <c r="BN301" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>356</v>
       </c>
@@ -58663,8 +59524,11 @@
       <c r="BM302" s="10">
         <v>0</v>
       </c>
+      <c r="BN302" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="303" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>356</v>
       </c>
@@ -58860,8 +59724,11 @@
       <c r="BM303" s="10">
         <v>0</v>
       </c>
+      <c r="BN303" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>356</v>
       </c>
@@ -59057,8 +59924,11 @@
       <c r="BM304" s="10">
         <v>2.9945860076141528E-3</v>
       </c>
+      <c r="BN304" s="10">
+        <v>7.5684801909585708E-2</v>
+      </c>
     </row>
-    <row r="305" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A305" s="8" t="s">
         <v>356</v>
       </c>
@@ -59254,8 +60124,11 @@
       <c r="BM305" s="10">
         <v>9.1851915552306762E-2</v>
       </c>
+      <c r="BN305" s="10">
+        <v>0.10147567862998708</v>
+      </c>
     </row>
-    <row r="306" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>391</v>
       </c>
@@ -59451,8 +60324,11 @@
       <c r="BM306" s="10">
         <v>3.4085683449861515E-2</v>
       </c>
+      <c r="BN306" s="10">
+        <v>3.2036634701827937E-2</v>
+      </c>
     </row>
-    <row r="307" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>391</v>
       </c>
@@ -59648,8 +60524,11 @@
       <c r="BM307" s="10">
         <v>1.5040678197853152E-2</v>
       </c>
+      <c r="BN307" s="10">
+        <v>7.064845833048472E-2</v>
+      </c>
     </row>
-    <row r="308" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>391</v>
       </c>
@@ -59845,8 +60724,11 @@
       <c r="BM308" s="10">
         <v>0.14446400281640548</v>
       </c>
+      <c r="BN308" s="10">
+        <v>0.14446400281640548</v>
+      </c>
     </row>
-    <row r="309" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>391</v>
       </c>
@@ -60042,8 +60924,11 @@
       <c r="BM309" s="10">
         <v>3.1833552507984253E-2</v>
       </c>
+      <c r="BN309" s="10">
+        <v>3.0048753047065446E-2</v>
+      </c>
     </row>
-    <row r="310" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>391</v>
       </c>
@@ -60239,8 +61124,11 @@
       <c r="BM310" s="10">
         <v>9.3552524852394736E-2</v>
       </c>
+      <c r="BN310" s="10">
+        <v>9.3552524852394736E-2</v>
+      </c>
     </row>
-    <row r="311" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>391</v>
       </c>
@@ -60436,8 +61324,11 @@
       <c r="BM311" s="10">
         <v>0.10016397282736023</v>
       </c>
+      <c r="BN311" s="10">
+        <v>8.8989322338513643E-2</v>
+      </c>
     </row>
-    <row r="312" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>391</v>
       </c>
@@ -60633,8 +61524,11 @@
       <c r="BM312" s="10">
         <v>0.24350512316244166</v>
       </c>
+      <c r="BN312" s="10">
+        <v>0.26788404136363231</v>
+      </c>
     </row>
-    <row r="313" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>391</v>
       </c>
@@ -60830,8 +61724,11 @@
       <c r="BM313" s="10">
         <v>2.9388218364601038E-4</v>
       </c>
+      <c r="BN313" s="10">
+        <v>2.4311921958730665E-4</v>
+      </c>
     </row>
-    <row r="314" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>391</v>
       </c>
@@ -61027,8 +61924,11 @@
       <c r="BM314" s="10">
         <v>0</v>
       </c>
+      <c r="BN314" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="315" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>391</v>
       </c>
@@ -61224,8 +62124,11 @@
       <c r="BM315" s="10">
         <v>1.9588389203996748E-2</v>
       </c>
+      <c r="BN315" s="10">
+        <v>2.0317136987022977E-2</v>
+      </c>
     </row>
-    <row r="316" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
         <v>391</v>
       </c>
@@ -61419,6 +62322,9 @@
         <v>5.2347607505162097E-2</v>
       </c>
       <c r="BM316" s="11">
+        <v>4.0041523228164788E-2</v>
+      </c>
+      <c r="BN316" s="11">
         <v>4.0041523228164788E-2</v>
       </c>
     </row>
